--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N2">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O2">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P2">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q2">
-        <v>4.140584722426963</v>
+        <v>4.498170793644</v>
       </c>
       <c r="R2">
-        <v>4.140584722426963</v>
+        <v>17.992683174576</v>
       </c>
       <c r="S2">
-        <v>0.002720492654922005</v>
+        <v>0.002755585958498986</v>
       </c>
       <c r="T2">
-        <v>0.002720492654922005</v>
+        <v>0.001510906795997078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N3">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P3">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q3">
-        <v>5.869702588557764</v>
+        <v>7.394159584262</v>
       </c>
       <c r="R3">
-        <v>5.869702588557764</v>
+        <v>44.364957505572</v>
       </c>
       <c r="S3">
-        <v>0.003856576751649778</v>
+        <v>0.004529672895943317</v>
       </c>
       <c r="T3">
-        <v>0.003856576751649778</v>
+        <v>0.003725476358857183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N4">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O4">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P4">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q4">
-        <v>61.28327284232377</v>
+        <v>63.75087188547734</v>
       </c>
       <c r="R4">
-        <v>61.28327284232377</v>
+        <v>382.505231312864</v>
       </c>
       <c r="S4">
-        <v>0.04026501202453388</v>
+        <v>0.03905387666869288</v>
       </c>
       <c r="T4">
-        <v>0.04026501202453388</v>
+        <v>0.03212026510374317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N5">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O5">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P5">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q5">
-        <v>56.88998265692432</v>
+        <v>58.567749672322</v>
       </c>
       <c r="R5">
-        <v>56.88998265692432</v>
+        <v>351.406498033932</v>
       </c>
       <c r="S5">
-        <v>0.03737848403838158</v>
+        <v>0.03587868847620883</v>
       </c>
       <c r="T5">
-        <v>0.03737848403838158</v>
+        <v>0.0295087987092016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N6">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O6">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P6">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q6">
-        <v>8.620564549400893</v>
+        <v>14.12577557438667</v>
       </c>
       <c r="R6">
-        <v>8.620564549400893</v>
+        <v>84.75465344631999</v>
       </c>
       <c r="S6">
-        <v>0.005663978425776513</v>
+        <v>0.008653470624256709</v>
       </c>
       <c r="T6">
-        <v>0.005663978425776513</v>
+        <v>0.007117136484977853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N7">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O7">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P7">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q7">
-        <v>75.17436583417053</v>
+        <v>75.458055094983</v>
       </c>
       <c r="R7">
-        <v>75.17436583417053</v>
+        <v>301.832220379932</v>
       </c>
       <c r="S7">
-        <v>0.049391891194152</v>
+        <v>0.04622571409898189</v>
       </c>
       <c r="T7">
-        <v>0.049391891194152</v>
+        <v>0.02534587802153491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N8">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O8">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P8">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q8">
-        <v>3.823138208553328</v>
+        <v>4.48385831035</v>
       </c>
       <c r="R8">
-        <v>3.823138208553328</v>
+        <v>26.9031498621</v>
       </c>
       <c r="S8">
-        <v>0.002511920444179358</v>
+        <v>0.002746818110454638</v>
       </c>
       <c r="T8">
-        <v>0.002511920444179358</v>
+        <v>0.00225914898661759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N9">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P9">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q9">
-        <v>5.419689667889751</v>
+        <v>7.370632512841667</v>
       </c>
       <c r="R9">
-        <v>5.419689667889751</v>
+        <v>66.335692615575</v>
       </c>
       <c r="S9">
-        <v>0.003560904297789266</v>
+        <v>0.004515260177835308</v>
       </c>
       <c r="T9">
-        <v>0.003560904297789266</v>
+        <v>0.005570433704499845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N10">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O10">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P10">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q10">
-        <v>56.58486364973039</v>
+        <v>63.54802647771112</v>
       </c>
       <c r="R10">
-        <v>56.58486364973039</v>
+        <v>571.9322382994001</v>
       </c>
       <c r="S10">
-        <v>0.03717801138207964</v>
+        <v>0.03892961327741027</v>
       </c>
       <c r="T10">
-        <v>0.03717801138207964</v>
+        <v>0.04802709508704206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N11">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O11">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P11">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q11">
-        <v>52.52839416654638</v>
+        <v>58.38139615725834</v>
       </c>
       <c r="R11">
-        <v>52.52839416654638</v>
+        <v>525.432565415325</v>
       </c>
       <c r="S11">
-        <v>0.03451278504963812</v>
+        <v>0.03576452804233825</v>
       </c>
       <c r="T11">
-        <v>0.03451278504963812</v>
+        <v>0.04412235941807503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N12">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O12">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P12">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q12">
-        <v>7.959651092176439</v>
+        <v>14.08082954272222</v>
       </c>
       <c r="R12">
-        <v>7.959651092176439</v>
+        <v>126.7274658845</v>
       </c>
       <c r="S12">
-        <v>0.005229737774648295</v>
+        <v>0.00862593662000774</v>
       </c>
       <c r="T12">
-        <v>0.005229737774648295</v>
+        <v>0.01064173628727784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N13">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O13">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P13">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q13">
-        <v>69.41096719207459</v>
+        <v>75.2179592421375</v>
       </c>
       <c r="R13">
-        <v>69.41096719207459</v>
+        <v>451.307755452825</v>
       </c>
       <c r="S13">
-        <v>0.04560515943419439</v>
+        <v>0.04607863103096461</v>
       </c>
       <c r="T13">
-        <v>0.04560515943419439</v>
+        <v>0.03789784704058898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N14">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O14">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P14">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q14">
-        <v>8.187092853303646</v>
+        <v>8.964277137630001</v>
       </c>
       <c r="R14">
-        <v>8.187092853303646</v>
+        <v>53.78566282578</v>
       </c>
       <c r="S14">
-        <v>0.005379174069772917</v>
+        <v>0.005491529188587252</v>
       </c>
       <c r="T14">
-        <v>0.005379174069772917</v>
+        <v>0.004516565022692531</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N15">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O15">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P15">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q15">
-        <v>11.60604198086104</v>
+        <v>14.735611152615</v>
       </c>
       <c r="R15">
-        <v>11.60604198086104</v>
+        <v>132.620500373535</v>
       </c>
       <c r="S15">
-        <v>0.007625529744780109</v>
+        <v>0.009027056784820827</v>
       </c>
       <c r="T15">
-        <v>0.007625529744780109</v>
+        <v>0.01113659443445566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N16">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O16">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P16">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q16">
-        <v>121.1741526255647</v>
+        <v>127.04730646388</v>
       </c>
       <c r="R16">
-        <v>121.1741526255647</v>
+        <v>1143.42575817492</v>
       </c>
       <c r="S16">
-        <v>0.07961517859994995</v>
+        <v>0.07782936438333304</v>
       </c>
       <c r="T16">
-        <v>0.07961517859994995</v>
+        <v>0.09601734949602972</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N17">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O17">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P17">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q17">
-        <v>112.4873904674195</v>
+        <v>116.718009047565</v>
       </c>
       <c r="R17">
-        <v>112.4873904674195</v>
+        <v>1050.462081428085</v>
       </c>
       <c r="S17">
-        <v>0.07390770629095762</v>
+        <v>0.07150162179032687</v>
       </c>
       <c r="T17">
-        <v>0.07390770629095762</v>
+        <v>0.08821087340711931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N18">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O18">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P18">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q18">
-        <v>17.04526465346049</v>
+        <v>28.1508579469</v>
       </c>
       <c r="R18">
-        <v>17.04526465346049</v>
+        <v>253.3577215221</v>
       </c>
       <c r="S18">
-        <v>0.01119926783281969</v>
+        <v>0.01724525644686237</v>
       </c>
       <c r="T18">
-        <v>0.01119926783281969</v>
+        <v>0.02127530949952919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N19">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O19">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P19">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q19">
-        <v>148.6407245669944</v>
+        <v>150.3782202075975</v>
       </c>
       <c r="R19">
-        <v>148.6407245669944</v>
+        <v>902.269321245585</v>
       </c>
       <c r="S19">
-        <v>0.09766156871915718</v>
+        <v>0.09212191601387192</v>
       </c>
       <c r="T19">
-        <v>0.09766156871915718</v>
+        <v>0.07576662335809453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N20">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O20">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P20">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q20">
-        <v>7.865109534446309</v>
+        <v>8.604638387241998</v>
       </c>
       <c r="R20">
-        <v>7.865109534446309</v>
+        <v>51.62783032345199</v>
       </c>
       <c r="S20">
-        <v>0.005167621037368023</v>
+        <v>0.005271213967986553</v>
       </c>
       <c r="T20">
-        <v>0.005167621037368023</v>
+        <v>0.004335364489077978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N21">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O21">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P21">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q21">
-        <v>11.14959767483521</v>
+        <v>14.14443166320767</v>
       </c>
       <c r="R21">
-        <v>11.14959767483521</v>
+        <v>127.299884968869</v>
       </c>
       <c r="S21">
-        <v>0.007325631671158176</v>
+        <v>0.008664899371352817</v>
       </c>
       <c r="T21">
-        <v>0.007325631671158176</v>
+        <v>0.01068980426448502</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N22">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O22">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P22">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q22">
-        <v>116.4085958496499</v>
+        <v>121.9502825951031</v>
       </c>
       <c r="R22">
-        <v>116.4085958496499</v>
+        <v>1097.552543355928</v>
       </c>
       <c r="S22">
-        <v>0.07648405991150273</v>
+        <v>0.07470692016161026</v>
       </c>
       <c r="T22">
-        <v>0.07648405991150273</v>
+        <v>0.09216521964125711</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N23">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O23">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P23">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q23">
-        <v>108.063468086023</v>
+        <v>112.0353873172043</v>
       </c>
       <c r="R23">
-        <v>108.063468086023</v>
+        <v>1008.318485854839</v>
       </c>
       <c r="S23">
-        <v>0.07100105200144466</v>
+        <v>0.06863304092021477</v>
       </c>
       <c r="T23">
-        <v>0.07100105200144466</v>
+        <v>0.08467193236416559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N24">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O24">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P24">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q24">
-        <v>16.37490571381462</v>
+        <v>27.02147080068222</v>
       </c>
       <c r="R24">
-        <v>16.37490571381462</v>
+        <v>243.19323720614</v>
       </c>
       <c r="S24">
-        <v>0.0107588212066246</v>
+        <v>0.01655339224147816</v>
       </c>
       <c r="T24">
-        <v>0.0107588212066246</v>
+        <v>0.02042176318396408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N25">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O25">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P25">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q25">
-        <v>142.7949579840336</v>
+        <v>144.3451810265565</v>
       </c>
       <c r="R25">
-        <v>142.7949579840336</v>
+        <v>866.0710861593388</v>
       </c>
       <c r="S25">
-        <v>0.09382071866597627</v>
+        <v>0.08842606745297651</v>
       </c>
       <c r="T25">
-        <v>0.09382071866597627</v>
+        <v>0.07272693445431891</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H26">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I26">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J26">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N26">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O26">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P26">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q26">
-        <v>2.626621272322584</v>
+        <v>2.898603813686</v>
       </c>
       <c r="R26">
-        <v>2.626621272322584</v>
+        <v>17.391622882116</v>
       </c>
       <c r="S26">
-        <v>0.00172577168628181</v>
+        <v>0.001775688904372202</v>
       </c>
       <c r="T26">
-        <v>0.00172577168628181</v>
+        <v>0.00146043371914298</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H27">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I27">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J27">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N27">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O27">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P27">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q27">
-        <v>3.72350446008407</v>
+        <v>4.764767758536333</v>
       </c>
       <c r="R27">
-        <v>3.72350446008407</v>
+        <v>42.882909826827</v>
       </c>
       <c r="S27">
-        <v>0.002446457979560572</v>
+        <v>0.002918903646229698</v>
       </c>
       <c r="T27">
-        <v>0.002446457979560572</v>
+        <v>0.003601023775099603</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H28">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I28">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J28">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N28">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O28">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P28">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q28">
-        <v>38.87565618771995</v>
+        <v>41.08081459115822</v>
       </c>
       <c r="R28">
-        <v>38.87565618771995</v>
+        <v>369.727331320424</v>
       </c>
       <c r="S28">
-        <v>0.02554251252030284</v>
+        <v>0.02516616665846749</v>
       </c>
       <c r="T28">
-        <v>0.02554251252030284</v>
+        <v>0.03104726138607483</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H29">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I29">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J29">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N29">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O29">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P29">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q29">
-        <v>36.08872868109176</v>
+        <v>37.74083073925966</v>
       </c>
       <c r="R29">
-        <v>36.08872868109176</v>
+        <v>339.667476653337</v>
       </c>
       <c r="S29">
-        <v>0.02371141466339481</v>
+        <v>0.02312008770190365</v>
       </c>
       <c r="T29">
-        <v>0.02371141466339481</v>
+        <v>0.02852303316160622</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H30">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I30">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J30">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N30">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O30">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P30">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q30">
-        <v>5.468541218887169</v>
+        <v>9.102594994624443</v>
       </c>
       <c r="R30">
-        <v>5.468541218887169</v>
+        <v>81.92335495162</v>
       </c>
       <c r="S30">
-        <v>0.003593001282775513</v>
+        <v>0.005576262908587864</v>
       </c>
       <c r="T30">
-        <v>0.003593001282775513</v>
+        <v>0.006879382721649036</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H31">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I31">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J31">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N31">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O31">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P31">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q31">
-        <v>47.68760976291684</v>
+        <v>48.62487804613949</v>
       </c>
       <c r="R31">
-        <v>47.68760976291684</v>
+        <v>291.749268276837</v>
       </c>
       <c r="S31">
-        <v>0.0313322394752884</v>
+        <v>0.02978767088323948</v>
       </c>
       <c r="T31">
-        <v>0.0313322394752884</v>
+        <v>0.02449917824316023</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H32">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I32">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J32">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N32">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O32">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P32">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q32">
-        <v>3.086708898353538</v>
+        <v>3.360582395139</v>
       </c>
       <c r="R32">
-        <v>3.086708898353538</v>
+        <v>13.442329580556</v>
       </c>
       <c r="S32">
-        <v>0.002028063534208077</v>
+        <v>0.00205869765405729</v>
       </c>
       <c r="T32">
-        <v>0.002028063534208077</v>
+        <v>0.001128798129786066</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H33">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I33">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J33">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N33">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O33">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P33">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q33">
-        <v>4.375725755025808</v>
+        <v>5.5241749737095</v>
       </c>
       <c r="R33">
-        <v>4.375725755025808</v>
+        <v>33.145049842257</v>
       </c>
       <c r="S33">
-        <v>0.002874987610330376</v>
+        <v>0.003384117608729943</v>
       </c>
       <c r="T33">
-        <v>0.002874987610330376</v>
+        <v>0.002783302555512712</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H34">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I34">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J34">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N34">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O34">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P34">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q34">
-        <v>45.68524406179814</v>
+        <v>47.62826214509734</v>
       </c>
       <c r="R34">
-        <v>45.68524406179814</v>
+        <v>285.769572870584</v>
       </c>
       <c r="S34">
-        <v>0.03001662307143706</v>
+        <v>0.02917714253540327</v>
       </c>
       <c r="T34">
-        <v>0.03001662307143706</v>
+        <v>0.02399704288404568</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H35">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I35">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J35">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N35">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O35">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P35">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q35">
-        <v>42.41014916158483</v>
+        <v>43.75595269744451</v>
       </c>
       <c r="R35">
-        <v>42.41014916158483</v>
+        <v>262.535716184667</v>
       </c>
       <c r="S35">
-        <v>0.02786478408793706</v>
+        <v>0.02680496014606565</v>
       </c>
       <c r="T35">
-        <v>0.02786478408793706</v>
+        <v>0.02204601692402783</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H36">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I36">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J36">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N36">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O36">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P36">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q36">
-        <v>6.426428895257598</v>
+        <v>10.55336377623667</v>
       </c>
       <c r="R36">
-        <v>6.426428895257598</v>
+        <v>63.32018265742</v>
       </c>
       <c r="S36">
-        <v>0.004222363211705837</v>
+        <v>0.006465005970387156</v>
       </c>
       <c r="T36">
-        <v>0.004222363211705837</v>
+        <v>0.005317211078115182</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H37">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I37">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J37">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N37">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O37">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P37">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q37">
-        <v>56.04072842456164</v>
+        <v>56.37469610579175</v>
       </c>
       <c r="R37">
-        <v>56.04072842456164</v>
+        <v>225.498784423167</v>
       </c>
       <c r="S37">
-        <v>0.036820497653321</v>
+        <v>0.03453522067754143</v>
       </c>
       <c r="T37">
-        <v>0.036820497653321</v>
+        <v>0.01893589980817698</v>
       </c>
     </row>
   </sheetData>
